--- a/data/processed/state_overviews/california_overview.xlsx
+++ b/data/processed/state_overviews/california_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>10513</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10,513</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Alameda County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>873</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Amador County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>13</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Butte County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>71</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Calaveras County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>13</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Colusa County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Contra Costa County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>286</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Del Norte County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>10</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>El Dorado County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>47</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Fresno County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>168</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Glenn County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>4</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Humboldt County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>96</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Imperial County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>21</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Inyo County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Kern County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>106</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Kings County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>13</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>16</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Lassen County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>7</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Los Angeles County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>2519</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2,519</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Madera County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>14</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Marin County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>241</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Mariposa County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>11</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Mendocino County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>68</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Merced County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>24</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Modoc County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>8</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Mono County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>11</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Monterey County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>122</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Napa County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>76</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Nevada County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>73</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Orange County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>587</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Placer County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>113</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Plumas County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>14</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Riverside County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>281</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Sacramento County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>463</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>San Benito County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>17</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>San Bernardino County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>266</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>San Diego County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>818</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>San Francisco County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>858</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>San Joaquin County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>96</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>San Luis Obispo County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>113</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>San Mateo County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>255</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Santa Barbara County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>209</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Santa Clara County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>502</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Santa Cruz County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>151</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Shasta County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>65</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Sierra County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>5</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Siskiyou County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>16</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Solano County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>59</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Sonoma County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>228</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Stanislaus County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>65</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Sutter County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>17</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Tehama County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>11</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Trinity County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>9</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Tulare County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>63</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Tuolumne County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>20</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Ventura County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>210</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Yolo County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>67</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Yuba County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>9</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,27 +2290,61 @@
           <t>Alpine County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>10,513</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>$42,132,825,415</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.03%</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-13.04%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>65.68%</t>
         </is>
       </c>
     </row>
@@ -2249,8 +2399,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>210</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2279,8 +2431,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>176</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2309,8 +2463,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>823</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2339,8 +2495,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>729</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2369,8 +2527,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>56</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2399,8 +2559,10 @@
           <t>Congressional District 14</t>
         </is>
       </c>
-      <c r="B7">
-        <v>126</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2429,8 +2591,10 @@
           <t>Congressional District 15</t>
         </is>
       </c>
-      <c r="B8">
-        <v>238</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2459,8 +2623,10 @@
           <t>Congressional District 16</t>
         </is>
       </c>
-      <c r="B9">
-        <v>265</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2489,8 +2655,10 @@
           <t>Congressional District 17</t>
         </is>
       </c>
-      <c r="B10">
-        <v>158</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2519,8 +2687,10 @@
           <t>Congressional District 18</t>
         </is>
       </c>
-      <c r="B11">
-        <v>213</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2549,8 +2719,10 @@
           <t>Congressional District 19</t>
         </is>
       </c>
-      <c r="B12">
-        <v>258</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2579,8 +2751,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B13">
-        <v>534</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2609,8 +2783,10 @@
           <t>Congressional District 20</t>
         </is>
       </c>
-      <c r="B14">
-        <v>115</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2639,8 +2815,10 @@
           <t>Congressional District 21</t>
         </is>
       </c>
-      <c r="B15">
-        <v>143</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2669,8 +2847,10 @@
           <t>Congressional District 22</t>
         </is>
       </c>
-      <c r="B16">
-        <v>55</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2699,8 +2879,10 @@
           <t>Congressional District 23</t>
         </is>
       </c>
-      <c r="B17">
-        <v>100</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2729,8 +2911,10 @@
           <t>Congressional District 24</t>
         </is>
       </c>
-      <c r="B18">
-        <v>351</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2759,8 +2943,10 @@
           <t>Congressional District 25</t>
         </is>
       </c>
-      <c r="B19">
-        <v>73</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2789,8 +2975,10 @@
           <t>Congressional District 26</t>
         </is>
       </c>
-      <c r="B20">
-        <v>175</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2819,8 +3007,10 @@
           <t>Congressional District 27</t>
         </is>
       </c>
-      <c r="B21">
-        <v>84</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2849,8 +3039,10 @@
           <t>Congressional District 28</t>
         </is>
       </c>
-      <c r="B22">
-        <v>231</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2879,8 +3071,10 @@
           <t>Congressional District 29</t>
         </is>
       </c>
-      <c r="B23">
-        <v>108</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2909,8 +3103,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B24">
-        <v>256</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2939,8 +3135,10 @@
           <t>Congressional District 30</t>
         </is>
       </c>
-      <c r="B25">
-        <v>294</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2969,8 +3167,10 @@
           <t>Congressional District 31</t>
         </is>
       </c>
-      <c r="B26">
-        <v>94</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2999,8 +3199,10 @@
           <t>Congressional District 32</t>
         </is>
       </c>
-      <c r="B27">
-        <v>207</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3029,8 +3231,10 @@
           <t>Congressional District 33</t>
         </is>
       </c>
-      <c r="B28">
-        <v>90</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3059,8 +3263,10 @@
           <t>Congressional District 34</t>
         </is>
       </c>
-      <c r="B29">
-        <v>383</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3089,8 +3295,10 @@
           <t>Congressional District 35</t>
         </is>
       </c>
-      <c r="B30">
-        <v>99</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3119,8 +3327,10 @@
           <t>Congressional District 36</t>
         </is>
       </c>
-      <c r="B31">
-        <v>306</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3149,8 +3359,10 @@
           <t>Congressional District 37</t>
         </is>
       </c>
-      <c r="B32">
-        <v>279</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3179,8 +3391,10 @@
           <t>Congressional District 38</t>
         </is>
       </c>
-      <c r="B33">
-        <v>56</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3209,8 +3423,10 @@
           <t>Congressional District 39</t>
         </is>
       </c>
-      <c r="B34">
-        <v>84</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3239,8 +3455,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B35">
-        <v>285</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3269,8 +3487,10 @@
           <t>Congressional District 40</t>
         </is>
       </c>
-      <c r="B36">
-        <v>116</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3299,8 +3519,10 @@
           <t>Congressional District 41</t>
         </is>
       </c>
-      <c r="B37">
-        <v>112</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3329,8 +3551,10 @@
           <t>Congressional District 42</t>
         </is>
       </c>
-      <c r="B38">
-        <v>235</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3359,8 +3583,10 @@
           <t>Congressional District 43</t>
         </is>
       </c>
-      <c r="B39">
-        <v>83</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3389,8 +3615,10 @@
           <t>Congressional District 44</t>
         </is>
       </c>
-      <c r="B40">
-        <v>104</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3419,8 +3647,10 @@
           <t>Congressional District 45</t>
         </is>
       </c>
-      <c r="B41">
-        <v>85</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3449,8 +3679,10 @@
           <t>Congressional District 46</t>
         </is>
       </c>
-      <c r="B42">
-        <v>156</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3479,8 +3711,10 @@
           <t>Congressional District 47</t>
         </is>
       </c>
-      <c r="B43">
-        <v>197</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3509,8 +3743,10 @@
           <t>Congressional District 48</t>
         </is>
       </c>
-      <c r="B44">
-        <v>112</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3539,8 +3775,10 @@
           <t>Congressional District 49</t>
         </is>
       </c>
-      <c r="B45">
-        <v>149</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3569,8 +3807,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B46">
-        <v>178</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3599,8 +3839,10 @@
           <t>Congressional District 50</t>
         </is>
       </c>
-      <c r="B47">
-        <v>311</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3629,8 +3871,10 @@
           <t>Congressional District 51</t>
         </is>
       </c>
-      <c r="B48">
-        <v>217</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3659,8 +3903,10 @@
           <t>Congressional District 52</t>
         </is>
       </c>
-      <c r="B49">
-        <v>104</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3689,8 +3935,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B50">
-        <v>198</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3719,8 +3967,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B51">
-        <v>256</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3749,8 +3999,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B52">
-        <v>152</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3779,8 +4031,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B53">
-        <v>94</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3809,8 +4063,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B54">
-        <v>10513</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10,513</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3884,8 +4140,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2809</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2,809</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3914,8 +4172,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>3237</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3,237</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3944,8 +4204,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>1720</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,720</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3974,8 +4236,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>867</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4004,8 +4268,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>1511</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1,511</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4034,8 +4300,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>369</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4064,8 +4332,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>10513</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10,513</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4139,8 +4409,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1192</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,192</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4169,8 +4441,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1432</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,432</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4199,8 +4473,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>559</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4229,8 +4505,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>867</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4259,8 +4537,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>54</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4289,8 +4569,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>3022</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3,022</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4319,8 +4601,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>159</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4349,8 +4633,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4379,8 +4665,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>860</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4409,8 +4697,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>231</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4439,8 +4729,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>2031</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2,031</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4469,8 +4761,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>104</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4499,8 +4793,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>10513</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10,513</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/california_overview.xlsx
+++ b/data/processed/state_overviews/california_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,135 +431,135 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alameda County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$3,207,378,460</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.79%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-12.36%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63.80%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amador County</t>
+          <t>California</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10,513</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$6,396,102</t>
+          <t>$42,132,825,415</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.16%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-46.58%</t>
+          <t>-13.04%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>65.68%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Butte County</t>
+          <t>Alameda County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>873</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$271,361,918</t>
+          <t>$3,207,378,460</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>9.79%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-51.08%</t>
+          <t>-12.36%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80.28%</t>
+          <t>63.80%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Calaveras County</t>
+          <t>Amador County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,1782 +569,1782 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$24,901,430</t>
+          <t>$6,396,102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-3.01%</t>
+          <t>12.16%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-38.17%</t>
+          <t>-46.58%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colusa County</t>
+          <t>Butte County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,686,555</t>
+          <t>$271,361,918</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-79.30%</t>
+          <t>-51.08%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.28%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Contra Costa County</t>
+          <t>Calaveras County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$394,571,287</t>
+          <t>$24,901,430</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.41%</t>
+          <t>-3.01%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-6.99%</t>
+          <t>-38.17%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60.84%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Del Norte County</t>
+          <t>Colusa County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$10,632,958</t>
+          <t>$2,686,555</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.82%</t>
+          <t>4.29%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-69.28%</t>
+          <t>-79.30%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>El Dorado County</t>
+          <t>Contra Costa County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>286</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$170,686,324</t>
+          <t>$394,571,287</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.99%</t>
+          <t>11.41%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-41.82%</t>
+          <t>-6.99%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>78.72%</t>
+          <t>60.84%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fresno County</t>
+          <t>Del Norte County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,100,001,882</t>
+          <t>$10,632,958</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.66%</t>
+          <t>3.82%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-18.06%</t>
+          <t>-69.28%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Glenn County</t>
+          <t>El Dorado County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$15,695,577</t>
+          <t>$170,686,324</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.85%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-40.96%</t>
+          <t>-41.82%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>78.72%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Humboldt County</t>
+          <t>Fresno County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$231,974,623</t>
+          <t>$1,100,001,882</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.70%</t>
+          <t>9.66%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-27.10%</t>
+          <t>-18.06%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>78.12%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Imperial County</t>
+          <t>Glenn County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$42,667,932</t>
+          <t>$15,695,577</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.23%</t>
+          <t>9.85%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-38.69%</t>
+          <t>-40.96%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>90.48%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Inyo County</t>
+          <t>Humboldt County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$23,940,630</t>
+          <t>$231,974,623</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13.92%</t>
+          <t>6.70%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-11.17%</t>
+          <t>-27.10%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>78.12%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kern County</t>
+          <t>Imperial County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$488,706,773</t>
+          <t>$42,667,932</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.05%</t>
+          <t>5.23%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-28.85%</t>
+          <t>-38.69%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>70.75%</t>
+          <t>90.48%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kings County</t>
+          <t>Inyo County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$45,795,585</t>
+          <t>$23,940,630</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16.64%</t>
+          <t>13.92%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-27.46%</t>
+          <t>-11.17%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Kern County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$24,883,818</t>
+          <t>$488,706,773</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>7.05%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-55.50%</t>
+          <t>-28.85%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>70.75%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lassen County</t>
+          <t>Kings County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$30,385,382</t>
+          <t>$45,795,585</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.23%</t>
+          <t>16.64%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-59.52%</t>
+          <t>-27.46%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Los Angeles County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2,519</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$14,017,933,566</t>
+          <t>$24,883,818</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-14.56%</t>
+          <t>-55.50%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>66.77%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Madera County</t>
+          <t>Lassen County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$28,008,182</t>
+          <t>$30,385,382</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18.74%</t>
+          <t>14.23%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-9.22%</t>
+          <t>-59.52%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Marin County</t>
+          <t>Los Angeles County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>2,519</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$251,463,185</t>
+          <t>$14,017,933,566</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12.80%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-3.29%</t>
+          <t>-14.56%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>53.53%</t>
+          <t>66.77%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mariposa County</t>
+          <t>Madera County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$8,198,492</t>
+          <t>$28,008,182</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.02%</t>
+          <t>18.74%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-22.77%</t>
+          <t>-9.22%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mendocino County</t>
+          <t>Marin County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$278,635,068</t>
+          <t>$251,463,185</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>12.80%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-39.10%</t>
+          <t>-3.29%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>83.82%</t>
+          <t>53.53%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Merced County</t>
+          <t>Mariposa County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$59,793,029</t>
+          <t>$8,198,492</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>4.02%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-16.87%</t>
+          <t>-22.77%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Modoc County</t>
+          <t>Mendocino County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$6,372,068</t>
+          <t>$278,635,068</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-41.07%</t>
+          <t>-39.10%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>83.82%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mono County</t>
+          <t>Merced County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$4,534,328</t>
+          <t>$59,793,029</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.95%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-35.09%</t>
+          <t>-16.87%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Monterey County</t>
+          <t>Modoc County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$198,073,830</t>
+          <t>$6,372,068</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14.66%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-11.06%</t>
+          <t>-41.07%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>61.48%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Napa County</t>
+          <t>Mono County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$450,876,664</t>
+          <t>$4,534,328</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9.02%</t>
+          <t>4.95%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-9.30%</t>
+          <t>-35.09%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nevada County</t>
+          <t>Monterey County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$68,379,245</t>
+          <t>$198,073,830</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>14.66%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-12.72%</t>
+          <t>-11.06%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>67.12%</t>
+          <t>61.48%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Orange County</t>
+          <t>Napa County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,183,869,798</t>
+          <t>$450,876,664</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12.13%</t>
+          <t>9.02%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-2.72%</t>
+          <t>-9.30%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>54.00%</t>
+          <t>68.42%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Placer County</t>
+          <t>Nevada County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$277,572,231</t>
+          <t>$68,379,245</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.09%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-5.81%</t>
+          <t>-12.72%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>59.29%</t>
+          <t>67.12%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Plumas County</t>
+          <t>Orange County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>587</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$29,466,484</t>
+          <t>$1,183,869,798</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.33%</t>
+          <t>12.13%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-41.80%</t>
+          <t>-2.72%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>54.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Riverside County</t>
+          <t>Placer County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$689,752,931</t>
+          <t>$277,572,231</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9.24%</t>
+          <t>5.09%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-11.04%</t>
+          <t>-5.81%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>62.28%</t>
+          <t>59.29%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sacramento County</t>
+          <t>Plumas County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$2,286,787,095</t>
+          <t>$29,466,484</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.97%</t>
+          <t>6.33%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-24.00%</t>
+          <t>-41.80%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>67.17%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>San Benito County</t>
+          <t>Riverside County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>281</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$29,607,558</t>
+          <t>$689,752,931</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12.21%</t>
+          <t>9.24%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-27.58%</t>
+          <t>-11.04%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>62.28%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>San Bernardino County</t>
+          <t>Sacramento County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>463</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$1,792,464,148</t>
+          <t>$2,286,787,095</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9.64%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-27.26%</t>
+          <t>-24.00%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>67.17%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>San Diego County</t>
+          <t>San Benito County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$3,484,959,435</t>
+          <t>$29,607,558</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.81%</t>
+          <t>12.21%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-9.97%</t>
+          <t>-27.58%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>63.45%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>San Francisco County</t>
+          <t>San Bernardino County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>266</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$3,194,995,462</t>
+          <t>$1,792,464,148</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9.06%</t>
+          <t>9.64%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-16.23%</t>
+          <t>-27.26%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>70.63%</t>
+          <t>68.42%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>San Joaquin County</t>
+          <t>San Diego County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>818</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$616,561,161</t>
+          <t>$3,484,959,435</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>8.81%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-23.73%</t>
+          <t>-9.97%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>63.45%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>San Luis Obispo County</t>
+          <t>San Francisco County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>858</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$196,725,337</t>
+          <t>$3,194,995,462</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.05%</t>
+          <t>9.06%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-7.28%</t>
+          <t>-16.23%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>62.83%</t>
+          <t>70.63%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>San Mateo County</t>
+          <t>San Joaquin County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$2,032,856,093</t>
+          <t>$616,561,161</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11.73%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-11.73%</t>
+          <t>-23.73%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>62.75%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Santa Barbara County</t>
+          <t>San Luis Obispo County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$596,607,685</t>
+          <t>$196,725,337</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13.67%</t>
+          <t>10.05%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-5.46%</t>
+          <t>-7.28%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>56.46%</t>
+          <t>62.83%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Santa Clara County</t>
+          <t>San Mateo County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$2,063,942,130</t>
+          <t>$2,032,856,093</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.78%</t>
+          <t>11.73%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-7.82%</t>
+          <t>-11.73%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>62.95%</t>
+          <t>62.75%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Santa Cruz County</t>
+          <t>Santa Barbara County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$183,695,034</t>
+          <t>$596,607,685</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>9.56%</t>
+          <t>13.67%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-10.41%</t>
+          <t>-5.46%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>65.56%</t>
+          <t>56.46%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Shasta County</t>
+          <t>Santa Clara County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>502</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$372,886,308</t>
+          <t>$2,063,942,130</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.22%</t>
+          <t>10.78%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-44.07%</t>
+          <t>-7.82%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>62.95%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sierra County</t>
+          <t>Santa Cruz County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$1,554,513</t>
+          <t>$183,695,034</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>9.56%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-75.19%</t>
+          <t>-10.41%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>65.56%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Siskiyou County</t>
+          <t>Shasta County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$17,202,616</t>
+          <t>$372,886,308</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-72.77%</t>
+          <t>-44.07%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Solano County</t>
+          <t>Sierra County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$97,666,481</t>
+          <t>$1,554,513</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.92%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-18.55%</t>
+          <t>-75.19%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>66.10%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sonoma County</t>
+          <t>Siskiyou County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$389,286,133</t>
+          <t>$17,202,616</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>2.31%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-17.84%</t>
+          <t>-72.77%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>68.86%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Stanislaus County</t>
+          <t>Solano County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$158,811,653</t>
+          <t>$97,666,481</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.33%</t>
+          <t>9.92%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-23.85%</t>
+          <t>-18.55%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>73.85%</t>
+          <t>66.10%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sutter County</t>
+          <t>Sonoma County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$71,182,378</t>
+          <t>$389,286,133</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.34%</t>
+          <t>7.51%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-72.24%</t>
+          <t>-17.84%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>94.12%</t>
+          <t>68.86%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tehama County</t>
+          <t>Stanislaus County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$17,371,020</t>
+          <t>$158,811,653</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.02%</t>
+          <t>3.33%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-66.02%</t>
+          <t>-23.85%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>73.85%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Trinity County</t>
+          <t>Sutter County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$9,203,611</t>
+          <t>$71,182,378</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21.64%</t>
+          <t>6.34%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-5.06%</t>
+          <t>-72.24%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>94.12%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tulare County</t>
+          <t>Tehama County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$177,127,053</t>
+          <t>$17,371,020</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.10%</t>
+          <t>6.02%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-10.67%</t>
+          <t>-66.02%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>65.08%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tuolumne County</t>
+          <t>Trinity County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$21,307,812</t>
+          <t>$9,203,611</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.63%</t>
+          <t>21.64%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-16.64%</t>
+          <t>-5.06%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ventura County</t>
+          <t>Tulare County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$561,902,243</t>
+          <t>$177,127,053</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5.49%</t>
+          <t>10.10%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-16.72%</t>
+          <t>-10.67%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>65.08%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Yolo County</t>
+          <t>Tuolumne County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$89,430,200</t>
+          <t>$21,307,812</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>10.63%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-23.87%</t>
+          <t>-16.64%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>76.12%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Yuba County</t>
+          <t>Ventura County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$23,095,919</t>
+          <t>$561,902,243</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13.00%</t>
+          <t>5.49%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-29.72%</t>
+          <t>-16.72%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Alpine County</t>
+          <t>Yolo County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$89,430,200</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-23.87%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>76.12%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Yuba County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10,513</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$42,132,825,415</t>
+          <t>$23,095,919</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>13.00%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-13.04%</t>
+          <t>-29.72%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>65.68%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2364,1383 +2364,1383 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$826,099,832</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.00%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-52.04%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>80.95%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>California</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>10,513</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$252,022,478</t>
+          <t>$42,132,825,415</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.16%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.45%</t>
+          <t>-13.04%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>58.52%</t>
+          <t>65.68%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$3,166,507,187</t>
+          <t>$826,099,832</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>7.00%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-15.88%</t>
+          <t>-52.04%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.35%</t>
+          <t>80.95%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>534</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,830,582,572</t>
+          <t>$922,977,625</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.79%</t>
+          <t>9.46%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.93%</t>
+          <t>-13.05%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62.69%</t>
+          <t>65.73%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 13</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$154,775,017</t>
+          <t>$428,425,206</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>7.21%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-14.85%</t>
+          <t>-10.55%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>64.84%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 14</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>285</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$195,424,343</t>
+          <t>$798,442,511</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-26.89%</t>
+          <t>-16.47%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>68.25%</t>
+          <t>69.47%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 15</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,991,761,246</t>
+          <t>$465,313,817</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.27%</t>
+          <t>7.99%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-16.20%</t>
+          <t>-26.40%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>65.97%</t>
+          <t>74.72%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 16</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$760,209,768</t>
+          <t>$1,436,512,209</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-42.75%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58.11%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 17</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$534,887,569</t>
+          <t>$869,931,981</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.11%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.90%</t>
+          <t>-17.73%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>57.59%</t>
+          <t>64.45%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 18</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$612,882,707</t>
+          <t>$224,954,952</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.78%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-22.92%</t>
+          <t>-17.66%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>74.18%</t>
+          <t>67.11%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 19</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$829,843,200</t>
+          <t>$598,638,097</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.08%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-8.17%</t>
+          <t>-23.73%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>62.02%</t>
+          <t>76.60%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$922,977,625</t>
+          <t>$252,022,478</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.46%</t>
+          <t>12.16%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-13.05%</t>
+          <t>-5.45%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65.73%</t>
+          <t>58.52%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Congressional District 20</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>823</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$359,463,932</t>
+          <t>$3,166,507,187</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.67%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-11.20%</t>
+          <t>-15.88%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>65.22%</t>
+          <t>70.35%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Congressional District 21</t>
+          <t>12th Congressional district</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>729</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$992,845,252</t>
+          <t>$2,830,582,572</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.60%</t>
+          <t>9.79%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-21.99%</t>
+          <t>-10.93%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65.73%</t>
+          <t>62.69%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Congressional District 22</t>
+          <t>13th Congressional district</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$321,378,556</t>
+          <t>$154,775,017</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-37.94%</t>
+          <t>-14.85%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>76.36%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Congressional District 23</t>
+          <t>14th Congressional district</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,103,333,486</t>
+          <t>$195,424,343</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>11.16%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-38.59%</t>
+          <t>-26.89%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>68.25%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Congressional District 24</t>
+          <t>15th Congressional district</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$836,803,907</t>
+          <t>$1,991,761,246</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>10.27%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-6.80%</t>
+          <t>-16.20%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>58.69%</t>
+          <t>65.97%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Congressional District 25</t>
+          <t>16th Congressional district</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>265</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$183,740,903</t>
+          <t>$760,209,768</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-19.76%</t>
+          <t>-3.00%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>73.97%</t>
+          <t>58.11%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Congressional District 26</t>
+          <t>17th Congressional district</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$525,439,748</t>
+          <t>$534,887,569</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>12.11%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-15.84%</t>
+          <t>-4.90%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>68.57%</t>
+          <t>57.59%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Congressional District 27</t>
+          <t>18th Congressional district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>213</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$558,371,121</t>
+          <t>$612,882,707</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-31.90%</t>
+          <t>-22.92%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>65.48%</t>
+          <t>74.18%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Congressional District 28</t>
+          <t>19th Congressional district</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$999,533,515</t>
+          <t>$829,843,200</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.13%</t>
+          <t>12.08%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-9.40%</t>
+          <t>-8.17%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>65.80%</t>
+          <t>62.02%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Congressional District 29</t>
+          <t>20th Congressional district</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$445,849,838</t>
+          <t>$359,463,932</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9.55%</t>
+          <t>9.67%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-8.30%</t>
+          <t>-11.20%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>63.89%</t>
+          <t>65.22%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>21st Congressional district</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$428,425,206</t>
+          <t>$992,845,252</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.21%</t>
+          <t>8.60%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-10.55%</t>
+          <t>-21.99%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>64.84%</t>
+          <t>65.73%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Congressional District 30</t>
+          <t>22nd Congressional district</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$902,103,037</t>
+          <t>$321,378,556</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11.09%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-5.25%</t>
+          <t>-37.94%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>58.50%</t>
+          <t>76.36%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Congressional District 31</t>
+          <t>23rd Congressional district</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2,147,725,934</t>
+          <t>$1,103,333,486</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-14.96%</t>
+          <t>-38.59%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>67.02%</t>
+          <t>71.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Congressional District 32</t>
+          <t>24th Congressional district</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$887,934,841</t>
+          <t>$836,803,907</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-7.70%</t>
+          <t>-6.80%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>57.00%</t>
+          <t>58.69%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Congressional District 33</t>
+          <t>25th Congressional district</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$311,820,959</t>
+          <t>$183,740,903</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.55%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-41.93%</t>
+          <t>-19.76%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>73.97%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Congressional District 34</t>
+          <t>26th Congressional district</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$2,248,240,061</t>
+          <t>$525,439,748</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.38%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-19.16%</t>
+          <t>-15.84%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>71.54%</t>
+          <t>68.57%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Congressional District 35</t>
+          <t>27th Congressional district</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$757,043,276</t>
+          <t>$558,371,121</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-8.90%</t>
+          <t>-31.90%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>61.62%</t>
+          <t>65.48%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Congressional District 36</t>
+          <t>28th Congressional district</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$990,979,152</t>
+          <t>$999,533,515</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>8.13%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-13.00%</t>
+          <t>-9.40%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>65.36%</t>
+          <t>65.80%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Congressional District 37</t>
+          <t>29th Congressional district</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$3,048,040,312</t>
+          <t>$445,849,838</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7.22%</t>
+          <t>9.55%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-21.62%</t>
+          <t>-8.30%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>67.38%</t>
+          <t>63.89%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Congressional District 38</t>
+          <t>30th Congressional district</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>294</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$217,406,727</t>
+          <t>$902,103,037</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.39%</t>
+          <t>11.09%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-6.25%</t>
+          <t>-5.25%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>58.50%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Congressional District 39</t>
+          <t>31st Congressional district</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$227,914,831</t>
+          <t>$2,147,725,934</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6.44%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-19.98%</t>
+          <t>-14.96%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>69.05%</t>
+          <t>67.02%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>32nd Congressional district</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$798,442,511</t>
+          <t>$887,934,841</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>8.15%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-16.47%</t>
+          <t>-7.70%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>69.47%</t>
+          <t>57.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Congressional District 40</t>
+          <t>33rd Congressional district</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$175,034,648</t>
+          <t>$311,820,959</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13.18%</t>
+          <t>10.55%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-2.07%</t>
+          <t>-41.93%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>53.45%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Congressional District 41</t>
+          <t>34th Congressional district</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>383</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$170,967,864</t>
+          <t>$2,248,240,061</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.97%</t>
+          <t>8.38%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-2.20%</t>
+          <t>-19.16%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>55.36%</t>
+          <t>71.54%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Congressional District 42</t>
+          <t>35th Congressional district</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$406,032,500</t>
+          <t>$757,043,276</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-56.69%</t>
+          <t>-8.90%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>81.28%</t>
+          <t>61.62%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Congressional District 43</t>
+          <t>36th Congressional district</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>306</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$335,303,472</t>
+          <t>$990,979,152</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8.49%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-18.84%</t>
+          <t>-13.00%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>74.70%</t>
+          <t>65.36%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Congressional District 44</t>
+          <t>37th Congressional district</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>279</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$402,434,486</t>
+          <t>$3,048,040,312</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-18.35%</t>
+          <t>-21.62%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>70.19%</t>
+          <t>67.38%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Congressional District 45</t>
+          <t>38th Congressional district</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$150,784,718</t>
+          <t>$217,406,727</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11.42%</t>
+          <t>4.39%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>-6.25%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>48.24%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Congressional District 46</t>
+          <t>39th Congressional district</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$440,431,464</t>
+          <t>$227,914,831</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>6.44%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-12.98%</t>
+          <t>-19.98%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>64.74%</t>
+          <t>69.05%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Congressional District 47</t>
+          <t>40th Congressional district</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$326,149,442</t>
+          <t>$175,034,648</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14.43%</t>
+          <t>13.18%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>-2.07%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>50.76%</t>
+          <t>53.45%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Congressional District 48</t>
+          <t>41st Congressional district</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3750,342 +3750,374 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$436,339,375</t>
+          <t>$170,967,864</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12.60%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-10.84%</t>
+          <t>-2.20%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>60.71%</t>
+          <t>55.36%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Congressional District 49</t>
+          <t>42nd Congressional district</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$221,638,024</t>
+          <t>$406,032,500</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-6.11%</t>
+          <t>-56.69%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>61.07%</t>
+          <t>81.28%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>43rd Congressional district</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$465,313,817</t>
+          <t>$335,303,472</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>8.49%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-26.40%</t>
+          <t>-18.84%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>74.72%</t>
+          <t>74.70%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Congressional District 50</t>
+          <t>44th Congressional district</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$805,386,251</t>
+          <t>$402,434,486</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-6.86%</t>
+          <t>-18.35%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>61.09%</t>
+          <t>70.19%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Congressional District 51</t>
+          <t>45th Congressional district</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$1,686,288,016</t>
+          <t>$150,784,718</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.02%</t>
+          <t>11.42%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-11.59%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>62.67%</t>
+          <t>48.24%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Congressional District 52</t>
+          <t>46th Congressional district</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$609,873,450</t>
+          <t>$440,431,464</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8.52%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-14.94%</t>
+          <t>-12.98%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>72.12%</t>
+          <t>64.74%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>47th Congressional district</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>197</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$1,436,512,209</t>
+          <t>$326,149,442</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>14.43%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-42.75%</t>
+          <t>-0.43%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>50.76%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>48th Congressional district</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$869,931,981</t>
+          <t>$436,339,375</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-17.73%</t>
+          <t>-10.84%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>64.45%</t>
+          <t>60.71%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>49th Congressional district</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$224,954,952</t>
+          <t>$221,638,024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.65%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-17.66%</t>
+          <t>-6.11%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>61.07%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>50th Congressional district</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$598,638,097</t>
+          <t>$805,386,251</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-23.73%</t>
+          <t>-6.86%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>76.60%</t>
+          <t>61.09%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>51st Congressional district</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10,513</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$42,132,825,415</t>
+          <t>$1,686,288,016</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>5.02%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-13.04%</t>
+          <t>-11.59%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>65.68%</t>
+          <t>62.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>52nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$609,873,450</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.52%</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-14.94%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>72.12%</t>
         </is>
       </c>
     </row>
@@ -4110,34 +4142,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4169,128 +4201,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3,237</t>
+          <t>1,511</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3,166,283,722</t>
+          <t>$35,379,526,953</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.85%</t>
+          <t>5.15%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-15.11%</t>
+          <t>-20.28%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>66.82%</t>
+          <t>70.81%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,720</t>
+          <t>3,237</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$441,488,086</t>
+          <t>$3,166,283,722</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.27%</t>
+          <t>8.85%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.71%</t>
+          <t>-15.11%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.63%</t>
+          <t>66.82%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>1,720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,816,184,486</t>
+          <t>$441,488,086</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>9.27%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-21.91%</t>
+          <t>-12.71%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.16%</t>
+          <t>66.63%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,511</t>
+          <t>867</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$35,379,526,953</t>
+          <t>$2,816,184,486</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>7.71%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-20.28%</t>
+          <t>-21.91%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.81%</t>
+          <t>71.16%</t>
         </is>
       </c>
     </row>
@@ -4379,34 +4411,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4438,7 +4470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4470,7 +4502,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4502,7 +4534,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4566,7 +4598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4598,7 +4630,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4630,160 +4662,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,222,507</t>
+          <t>$1,611,192,720</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.90%</t>
+          <t>11.60%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-56.38%</t>
+          <t>-10.00%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.58%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,611,192,720</t>
+          <t>$250,490,251</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>12.82%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-10.00%</t>
+          <t>-1.12%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.58%</t>
+          <t>51.08%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$250,490,251</t>
+          <t>$1,222,507</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.82%</t>
+          <t>19.90%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.12%</t>
+          <t>-56.38%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>51.08%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2,031</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$8,157,116,102</t>
+          <t>$2,388,946,839</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>6.57%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-15.75%</t>
+          <t>-0.03%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.03%</t>
+          <t>50.96%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>2,031</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2,388,946,839</t>
+          <t>$8,157,116,102</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.57%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-15.75%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50.96%</t>
+          <t>69.03%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/california_overview.xlsx
+++ b/data/processed/state_overviews/california_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>65.68%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>10,513</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$42,132,825,415</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.03%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-13.04%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.68%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.68%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>10,513</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$42,132,825,415</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.03%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.04%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.68%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>63.80%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>873</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$3,207,378,460</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.79%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-12.36%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>63.80%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$6,396,102</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>12.16%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-46.58%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>80.28%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$271,361,918</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.44%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-51.08%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>80.28%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$24,901,430</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>-3.01%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-38.17%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,686,555</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.29%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-79.30%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>60.84%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>286</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$394,571,287</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.41%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-6.99%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>60.84%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$10,632,958</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>3.82%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-69.28%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>78.72%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$170,686,324</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>4.99%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-41.82%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>78.72%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>168</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$1,100,001,882</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>9.66%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-18.06%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$15,695,577</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>9.85%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-40.96%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>78.12%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$231,974,623</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>6.70%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-27.10%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>78.12%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>90.48%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$42,667,932</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>5.23%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-38.69%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>90.48%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$23,940,630</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>13.92%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-11.17%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>70.75%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>106</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$488,706,773</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>7.05%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-28.85%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>70.75%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$45,795,585</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>16.64%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-27.46%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$24,883,818</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>7.45%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-55.50%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>81.25%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$30,385,382</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>14.23%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-59.52%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>66.77%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2,519</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$14,017,933,566</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>7.79%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-14.56%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>66.77%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$28,008,182</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>18.74%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-9.22%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>53.53%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>241</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$251,463,185</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>12.80%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-3.29%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>53.53%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$8,198,492</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>4.02%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-22.77%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>83.82%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$278,635,068</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>5.73%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-39.10%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>83.82%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$59,793,029</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>11.39%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-16.87%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$6,372,068</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1.14%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-41.07%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$4,534,328</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>4.95%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-35.09%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>61.48%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>122</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$198,073,830</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>14.66%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-11.06%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>61.48%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>68.42%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>76</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$450,876,664</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>9.02%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-9.30%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>68.42%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>67.12%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$68,379,245</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>9.36%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-12.72%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>67.12%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>54.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>587</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$1,183,869,798</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>12.13%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-2.72%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>54.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>59.29%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>113</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$277,572,231</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>5.09%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-5.81%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>59.29%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$29,466,484</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>6.33%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-41.80%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>62.28%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$689,752,931</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>9.24%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-11.04%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>62.28%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>67.17%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>463</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$2,286,787,095</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>8.97%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-24.00%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>67.17%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$29,607,558</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>12.21%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-27.58%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>68.42%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>266</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$1,792,464,148</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>9.64%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-27.26%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>68.42%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>63.45%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>818</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$3,484,959,435</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>8.81%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-9.97%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>63.45%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>70.63%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>858</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$3,194,995,462</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>9.06%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-16.23%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>70.63%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$616,561,161</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>7.04%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-23.73%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>62.83%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>113</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$196,725,337</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>10.05%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-7.28%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>62.83%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>62.75%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>255</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$2,032,856,093</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>11.73%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-11.73%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>62.75%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>56.46%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$596,607,685</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>13.67%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-5.46%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>56.46%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>62.95%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>502</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$2,063,942,130</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>10.78%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-7.82%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>62.95%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>65.56%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$183,695,034</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>9.56%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-10.41%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>65.56%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$372,886,308</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>7.22%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-44.07%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$1,554,513</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>3.95%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-75.19%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$17,202,616</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2.31%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-72.77%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>81.25%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>66.10%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$97,666,481</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>9.92%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-18.55%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>66.10%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>68.86%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>228</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$389,286,133</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>7.51%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-17.84%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>68.86%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>73.85%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$158,811,653</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>3.33%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-23.85%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>73.85%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>94.12%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$71,182,378</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>6.34%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-72.24%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>94.12%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$17,371,020</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>6.02%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-66.02%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$9,203,611</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>21.64%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-5.06%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>65.08%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$177,127,053</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>10.10%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-10.67%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>65.08%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$21,307,812</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>10.63%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-16.64%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>210</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$561,902,243</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>5.49%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-16.72%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>76.12%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$89,430,200</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>6.14%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-23.87%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>76.12%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$23,095,919</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>13.00%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-29.72%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2369,27 +2369,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2401,27 +2401,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2433,1691 +2433,1691 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.68%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>10,513</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$42,132,825,415</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.03%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.04%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.68%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>80.95%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>210</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$826,099,832</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-52.04%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>80.95%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>58.52%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$922,977,625</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.46%</t>
+          <t>$252,022,478</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.05%</t>
+          <t>12.16%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65.73%</t>
+          <t>-5.45%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>70.35%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$428,425,206</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.21%</t>
+          <t>$3,166,507,187</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.55%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.84%</t>
+          <t>-15.88%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>62.69%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$798,442,511</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>$2,830,582,572</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-16.47%</t>
+          <t>9.79%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>69.47%</t>
+          <t>-10.93%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$465,313,817</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>$154,775,017</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-26.40%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>74.72%</t>
+          <t>-14.85%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>68.25%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,436,512,209</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>$195,424,343</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-42.75%</t>
+          <t>11.16%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>-26.89%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>65.97%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$869,931,981</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>$1,991,761,246</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-17.73%</t>
+          <t>10.27%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.45%</t>
+          <t>-16.20%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>58.11%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$224,954,952</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.65%</t>
+          <t>$760,209,768</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-17.66%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>57.59%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$598,638,097</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>$534,887,569</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-23.73%</t>
+          <t>12.11%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>76.60%</t>
+          <t>-4.90%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>74.18%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$252,022,478</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.16%</t>
+          <t>$612,882,707</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-5.45%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58.52%</t>
+          <t>-22.92%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>62.02%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$3,166,507,187</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>$829,843,200</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-15.88%</t>
+          <t>12.08%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>70.35%</t>
+          <t>-8.17%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>65.73%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$2,830,582,572</t>
+          <t>534</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.79%</t>
+          <t>$922,977,625</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-10.93%</t>
+          <t>9.46%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>62.69%</t>
+          <t>-13.05%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>65.22%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$154,775,017</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>$359,463,932</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-14.85%</t>
+          <t>9.67%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>-11.20%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14th Congressional district</t>
+          <t>Congressional District 21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>65.73%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$195,424,343</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.16%</t>
+          <t>$992,845,252</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-26.89%</t>
+          <t>8.60%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>68.25%</t>
+          <t>-21.99%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15th Congressional district</t>
+          <t>Congressional District 22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>76.36%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,991,761,246</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.27%</t>
+          <t>$321,378,556</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-16.20%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>65.97%</t>
+          <t>-37.94%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16th Congressional district</t>
+          <t>Congressional District 23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>71.00%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$760,209,768</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>$1,103,333,486</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>58.11%</t>
+          <t>-38.59%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17th Congressional district</t>
+          <t>Congressional District 24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>58.69%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$534,887,569</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.11%</t>
+          <t>$836,803,907</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-4.90%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>57.59%</t>
+          <t>-6.80%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18th Congressional district</t>
+          <t>Congressional District 25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>73.97%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$612,882,707</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9.78%</t>
+          <t>$183,740,903</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-22.92%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>74.18%</t>
+          <t>-19.76%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19th Congressional district</t>
+          <t>Congressional District 26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>68.57%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$829,843,200</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12.08%</t>
+          <t>$525,439,748</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-8.17%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>62.02%</t>
+          <t>-15.84%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20th Congressional district</t>
+          <t>Congressional District 27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>65.48%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$359,463,932</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9.67%</t>
+          <t>$558,371,121</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-11.20%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>65.22%</t>
+          <t>-31.90%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21st Congressional district</t>
+          <t>Congressional District 28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>65.80%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$992,845,252</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.60%</t>
+          <t>$999,533,515</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-21.99%</t>
+          <t>8.13%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>65.73%</t>
+          <t>-9.40%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22nd Congressional district</t>
+          <t>Congressional District 29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63.89%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$321,378,556</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>$445,849,838</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-37.94%</t>
+          <t>9.55%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>76.36%</t>
+          <t>-8.30%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>64.84%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,103,333,486</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>$428,425,206</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-38.59%</t>
+          <t>7.21%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>-10.55%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24th Congressional district</t>
+          <t>Congressional District 30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>58.50%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$836,803,907</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>$902,103,037</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-6.80%</t>
+          <t>11.09%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>58.69%</t>
+          <t>-5.25%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25th Congressional district</t>
+          <t>Congressional District 31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>67.02%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$183,740,903</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>$2,147,725,934</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-19.76%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>73.97%</t>
+          <t>-14.96%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26th Congressional district</t>
+          <t>Congressional District 32</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>57.00%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$525,439,748</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>$887,934,841</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-15.84%</t>
+          <t>8.15%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>68.57%</t>
+          <t>-7.70%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27th Congressional district</t>
+          <t>Congressional District 33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>70.00%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$558,371,121</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>$311,820,959</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-31.90%</t>
+          <t>10.55%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>65.48%</t>
+          <t>-41.93%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28th Congressional district</t>
+          <t>Congressional District 34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>71.54%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$999,533,515</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.13%</t>
+          <t>$2,248,240,061</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-9.40%</t>
+          <t>8.38%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>65.80%</t>
+          <t>-19.16%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29th Congressional district</t>
+          <t>Congressional District 35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>61.62%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$445,849,838</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9.55%</t>
+          <t>$757,043,276</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-8.30%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>63.89%</t>
+          <t>-8.90%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30th Congressional district</t>
+          <t>Congressional District 36</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>65.36%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$902,103,037</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11.09%</t>
+          <t>$990,979,152</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-5.25%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>58.50%</t>
+          <t>-13.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31st Congressional district</t>
+          <t>Congressional District 37</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>67.38%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$2,147,725,934</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>$3,048,040,312</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-14.96%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>67.02%</t>
+          <t>-21.62%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>32nd Congressional district</t>
+          <t>Congressional District 38</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$887,934,841</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>$217,406,727</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-7.70%</t>
+          <t>4.39%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>57.00%</t>
+          <t>-6.25%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>33rd Congressional district</t>
+          <t>Congressional District 39</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>69.05%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$311,820,959</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10.55%</t>
+          <t>$227,914,831</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-41.93%</t>
+          <t>6.44%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>-19.98%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>34th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>69.47%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$2,248,240,061</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.38%</t>
+          <t>$798,442,511</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-19.16%</t>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>71.54%</t>
+          <t>-16.47%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35th Congressional district</t>
+          <t>Congressional District 40</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>53.45%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$757,043,276</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>$175,034,648</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-8.90%</t>
+          <t>13.18%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>61.62%</t>
+          <t>-2.07%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>36th Congressional district</t>
+          <t>Congressional District 41</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>55.36%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$990,979,152</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>$170,967,864</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-13.00%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>65.36%</t>
+          <t>-2.20%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37th Congressional district</t>
+          <t>Congressional District 42</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>81.28%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$3,048,040,312</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.22%</t>
+          <t>$406,032,500</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-21.62%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>67.38%</t>
+          <t>-56.69%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38th Congressional district</t>
+          <t>Congressional District 43</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>74.70%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$217,406,727</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.39%</t>
+          <t>$335,303,472</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-6.25%</t>
+          <t>8.49%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>-18.84%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>39th Congressional district</t>
+          <t>Congressional District 44</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>70.19%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$227,914,831</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6.44%</t>
+          <t>$402,434,486</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-19.98%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>69.05%</t>
+          <t>-18.35%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40th Congressional district</t>
+          <t>Congressional District 45</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>48.24%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$175,034,648</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13.18%</t>
+          <t>$150,784,718</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-2.07%</t>
+          <t>11.42%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>53.45%</t>
+          <t>0.28%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>41st Congressional district</t>
+          <t>Congressional District 46</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>64.74%</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$170,967,864</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10.97%</t>
+          <t>$440,431,464</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-2.20%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>55.36%</t>
+          <t>-12.98%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>42nd Congressional district</t>
+          <t>Congressional District 47</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>50.76%</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$406,032,500</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>$326,149,442</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-56.69%</t>
+          <t>14.43%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>81.28%</t>
+          <t>-0.43%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>43rd Congressional district</t>
+          <t>Congressional District 48</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>60.71%</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$335,303,472</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.49%</t>
+          <t>$436,339,375</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-18.84%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>74.70%</t>
+          <t>-10.84%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>44th Congressional district</t>
+          <t>Congressional District 49</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>61.07%</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$402,434,486</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>$221,638,024</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-18.35%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>70.19%</t>
+          <t>-6.11%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>45th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>74.72%</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$150,784,718</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11.42%</t>
+          <t>$465,313,817</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>7.99%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>48.24%</t>
+          <t>-26.40%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>46th Congressional district</t>
+          <t>Congressional District 50</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>61.09%</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$440,431,464</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>$805,386,251</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-12.98%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>64.74%</t>
+          <t>-6.86%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>47th Congressional district</t>
+          <t>Congressional District 51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>62.67%</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$326,149,442</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14.43%</t>
+          <t>$1,686,288,016</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>5.02%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>50.76%</t>
+          <t>-11.59%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>48th Congressional district</t>
+          <t>Congressional District 52</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>72.12%</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$436,339,375</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12.60%</t>
+          <t>$609,873,450</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-10.84%</t>
+          <t>8.52%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>60.71%</t>
+          <t>-14.94%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>49th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>72.73%</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$221,638,024</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>$1,436,512,209</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-6.11%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>61.07%</t>
+          <t>-42.75%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>50th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>64.45%</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$805,386,251</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>$869,931,981</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-6.86%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>61.09%</t>
+          <t>-17.73%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>51st Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>67.11%</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,686,288,016</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5.02%</t>
+          <t>$224,954,952</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-11.59%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>62.67%</t>
+          <t>-17.66%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>52nd Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>76.60%</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$609,873,450</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8.52%</t>
+          <t>$598,638,097</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-14.94%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>72.12%</t>
+          <t>-23.73%</t>
         </is>
       </c>
     </row>
@@ -4142,187 +4142,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>60.09%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2,809</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$309,106,235</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.48%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.65%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>60.09%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,511</t>
+          <t>66.82%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$35,379,526,953</t>
+          <t>3,237</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>$3,166,283,722</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.28%</t>
+          <t>8.85%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.81%</t>
+          <t>-15.11%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3,237</t>
+          <t>66.63%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$3,166,283,722</t>
+          <t>1,720</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.85%</t>
+          <t>$441,488,086</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-15.11%</t>
+          <t>9.27%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.82%</t>
+          <t>-12.71%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,720</t>
+          <t>71.16%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$441,488,086</t>
+          <t>867</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.27%</t>
+          <t>$2,816,184,486</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.71%</t>
+          <t>7.71%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.63%</t>
+          <t>-21.91%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>70.81%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,816,184,486</t>
+          <t>1,511</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.71%</t>
+          <t>$35,379,526,953</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-21.91%</t>
+          <t>5.15%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.16%</t>
+          <t>-20.28%</t>
         </is>
       </c>
     </row>
@@ -4334,27 +4334,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>59.89%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>369</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$20,235,933</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>24.35%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-11.29%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>59.89%</t>
         </is>
       </c>
     </row>
@@ -4366,27 +4366,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>65.68%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>10,513</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$42,132,825,415</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.03%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-13.04%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>65.68%</t>
         </is>
       </c>
     </row>
@@ -4411,155 +4411,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>65.02%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1,192</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$1,019,505,109</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>13.35%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-9.26%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>65.02%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>67.95%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,432</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$8,303,105,620</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.60%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-23.13%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>67.95%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>49.02%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>559</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$733,078,321</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>15.87%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.58%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>49.02%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>68.28%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>867</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$5,179,877,027</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.84%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-12.63%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>68.28%</t>
         </is>
       </c>
     </row>
@@ -4571,251 +4571,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>57.41%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$427,780,254</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.76%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-2.28%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>57.41%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>68.99%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>3,022</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$13,779,490,730</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.49%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-21.15%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>68.99%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>49.69%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>159</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$281,019,935</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.42%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0.27%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>49.69%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,611,192,720</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>$1,222,507</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-10.00%</t>
+          <t>19.90%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>60.58%</t>
+          <t>-56.38%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>60.58%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$250,490,251</t>
+          <t>860</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.82%</t>
+          <t>$1,611,192,720</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-1.12%</t>
+          <t>11.60%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>51.08%</t>
+          <t>-10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>51.08%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,222,507</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.90%</t>
+          <t>$250,490,251</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-56.38%</t>
+          <t>12.82%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-1.12%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>69.03%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,388,946,839</t>
+          <t>2,031</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.57%</t>
+          <t>$8,157,116,102</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50.96%</t>
+          <t>-15.75%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2,031</t>
+          <t>50.96%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$8,157,116,102</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>$2,388,946,839</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-15.75%</t>
+          <t>6.57%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.03%</t>
+          <t>-0.03%</t>
         </is>
       </c>
     </row>
@@ -4827,27 +4827,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>65.68%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>10,513</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$42,132,825,415</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.03%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-13.04%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>65.68%</t>
         </is>
       </c>
     </row>
